--- a/a8_result.xlsx
+++ b/a8_result.xlsx
@@ -420,23 +420,23 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025年12月</v>
+        <v>2026年01月</v>
       </c>
       <c r="B3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025年11月</v>
+        <v>2025年12月</v>
       </c>
       <c r="B4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025年10月</v>
+        <v>2025年11月</v>
       </c>
       <c r="B5" t="str">
         <v>0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025年09月</v>
+        <v>2025年10月</v>
       </c>
       <c r="B6" t="str">
         <v>0</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025年08月</v>
+        <v>2025年09月</v>
       </c>
       <c r="B7" t="str">
         <v>0</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025年07月</v>
+        <v>2025年08月</v>
       </c>
       <c r="B8" t="str">
         <v>0</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025年06月</v>
+        <v>2025年07月</v>
       </c>
       <c r="B9" t="str">
         <v>0</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025年05月</v>
+        <v>2025年06月</v>
       </c>
       <c r="B10" t="str">
         <v>0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025年04月</v>
+        <v>2025年05月</v>
       </c>
       <c r="B11" t="str">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025年03月</v>
+        <v>2025年04月</v>
       </c>
       <c r="B12" t="str">
         <v>0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025年02月</v>
+        <v>2025年03月</v>
       </c>
       <c r="B13" t="str">
         <v>0</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025年01月</v>
+        <v>2025年02月</v>
       </c>
       <c r="B14" t="str">
         <v>0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024年12月</v>
+        <v>2025年01月</v>
       </c>
       <c r="B15" t="str">
         <v>0</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024年11月</v>
+        <v>2024年12月</v>
       </c>
       <c r="B16" t="str">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024年10月</v>
+        <v>2024年11月</v>
       </c>
       <c r="B17" t="str">
         <v>0</v>
